--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T23:11:23+00:00</t>
+    <t>2024-07-08T16:31:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T16:31:04+00:00</t>
+    <t>2024-07-11T20:02:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T20:02:03+00:00</t>
+    <t>2024-07-15T14:16:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T14:16:39+00:00</t>
+    <t>2024-07-30T19:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T19:47:38+00:00</t>
+    <t>2024-08-08T16:40:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T16:40:30+00:00</t>
+    <t>2024-08-08T19:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T19:03:14+00:00</t>
+    <t>2024-08-12T19:06:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-12T19:06:04+00:00</t>
+    <t>2024-08-20T21:48:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:48:07+00:00</t>
+    <t>2024-08-22T16:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-22T16:27:20+00:00</t>
+    <t>2024-09-10T18:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T18:56:29+00:00</t>
+    <t>2024-09-12T18:14:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T18:14:21+00:00</t>
+    <t>2024-09-13T20:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T20:57:31+00:00</t>
+    <t>2024-09-16T16:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T16:04:42+00:00</t>
+    <t>2024-09-18T19:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T19:34:29+00:00</t>
+    <t>2024-09-25T18:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T18:09:20+00:00</t>
+    <t>2024-09-26T15:36:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T15:36:52+00:00</t>
+    <t>2024-09-26T17:33:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T17:33:09+00:00</t>
+    <t>2024-09-26T18:25:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T18:25:51+00:00</t>
+    <t>2024-09-26T19:08:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T19:08:25+00:00</t>
+    <t>2024-10-07T20:39:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T20:39:38+00:00</t>
+    <t>2024-10-08T12:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T12:54:01+00:00</t>
+    <t>2024-10-08T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T13:48:24+00:00</t>
+    <t>2024-10-28T19:33:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T19:33:15+00:00</t>
+    <t>2024-10-30T18:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T18:30:14+00:00</t>
+    <t>2024-11-25T15:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T15:36:07+00:00</t>
+    <t>2025-01-06T15:08:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T15:08:44+00:00</t>
+    <t>2025-01-10T20:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:53:40+00:00</t>
+    <t>2025-01-13T15:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:02:43+00:00</t>
+    <t>2025-01-13T16:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:25:54+00:00</t>
+    <t>2025-01-14T18:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T18:54:07+00:00</t>
+    <t>2025-01-27T23:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T23:56:01+00:00</t>
+    <t>2025-01-28T00:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T00:06:22+00:00</t>
+    <t>2025-02-07T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:45:47+00:00</t>
+    <t>2025-03-11T16:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T16:55:01+00:00</t>
+    <t>2025-03-24T15:08:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T15:08:47+00:00</t>
+    <t>2025-05-11T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1598,17 +1598,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.90234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="41.0234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.90625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.92578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.8671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.90234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1617,27 +1617,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="124.69140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.97265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="106.90234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.12890625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="207.0625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="97.8125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="181.859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="177.51953125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="39.109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="83.85546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="155.9140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:55+00:00</t>
+    <t>2025-05-16T18:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T18:22:27+00:00</t>
+    <t>2025-05-21T14:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:15:46+00:00</t>
+    <t>2025-05-21T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="398">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:22:51+00:00</t>
+    <t>2025-06-13T15:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -243,10 +243,10 @@
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
+    <t>Mapping: ClinicalTrials.gov Mapping</t>
+  </si>
+  <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: ClinicalTrials.gov Mapping</t>
   </si>
   <si>
     <t>Clinical Trial
@@ -273,7 +273,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where(((id.exists() and ('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url)))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(uri) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>ObservationalStudyProtocolVersion; Study;
@@ -286,9 +286,6 @@
     <t>Observation[classCode=CLNTRL, moodCode=EVN]</t>
   </si>
   <si>
-    <t>clinical.diagnostics</t>
-  </si>
-  <si>
     <t>ResearchStudy.id</t>
   </si>
   <si>
@@ -372,7 +369,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>IETF language tag</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -430,10 +427,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -484,26 +477,6 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension:result</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/research-study-result}
-</t>
-  </si>
-  <si>
-    <t>Link to results generated during the study.</t>
-  </si>
-  <si>
-    <t>Link to citations associated with the study's publications.</t>
-  </si>
-  <si>
     <t>ResearchStudy.extension:associatedParty</t>
   </si>
   <si>
@@ -553,7 +526,7 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4B/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -581,10 +554,10 @@
     <t>.identifier</t>
   </si>
   <si>
+    <t>Organization's Unique Protocol ID; Secondary IDs</t>
+  </si>
+  <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Organization's Unique Protocol ID; Secondary IDs</t>
   </si>
   <si>
     <t>ResearchStudy.title</t>
@@ -669,7 +642,7 @@
     <t>Codes that convey the current status of the research study.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/research-study-status|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/research-study-status|4.0.1</t>
   </si>
   <si>
     <t>StudyOverallStatus.code</t>
@@ -852,10 +825,10 @@
     <t>InterventionalStudyProtocol.interventionTypeCode</t>
   </si>
   <si>
+    <t>Focus of Study</t>
+  </si>
+  <si>
     <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>Focus of Study</t>
   </si>
   <si>
     <t>ResearchStudy.condition</t>
@@ -1001,10 +974,10 @@
     <t>.participation[typeCode=SBJ].role</t>
   </si>
   <si>
+    <t>Enrollment; Number of Groups/Cohorts (= number of "enrollment" instances); Groups (Group/Cohort Label = Group.name; Group/Cohort Description = Group.description); Eligibility (Group criteria)</t>
+  </si>
+  <si>
     <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Enrollment; Number of Groups/Cohorts (= number of "enrollment" instances); Groups (Group/Cohort Label = Group.name; Group/Cohort Description = Group.description); Eligibility (Group criteria)</t>
   </si>
   <si>
     <t>ResearchStudy.period</t>
@@ -1030,10 +1003,10 @@
     <t>.effectiveTime</t>
   </si>
   <si>
+    <t>Study Start Date (start); Study Completion Date (end)</t>
+  </si>
+  <si>
     <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>Study Start Date (start); Study Completion Date (end)</t>
   </si>
   <si>
     <t>ResearchStudy.sponsor</t>
@@ -1055,10 +1028,10 @@
     <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
   </si>
   <si>
+    <t>Sponsor</t>
+  </si>
+  <si>
     <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>Sponsor</t>
   </si>
   <si>
     <t>ResearchStudy.principalInvestigator</t>
@@ -1096,12 +1069,12 @@
     <t>PlannedStudySite; StudySite</t>
   </si>
   <si>
+    <t>Facility</t>
+  </si>
+  <si>
     <t>FiveWs.where[x]</t>
   </si>
   <si>
-    <t>Facility</t>
-  </si>
-  <si>
     <t>ResearchStudy.reasonStopped</t>
   </si>
   <si>
@@ -1120,10 +1093,10 @@
     <t>StudyOverallStatus.studyStoppedReasonCode</t>
   </si>
   <si>
+    <t>Why Study Stopped</t>
+  </si>
+  <si>
     <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>Why Study Stopped</t>
   </si>
   <si>
     <t>ResearchStudy.note</t>
@@ -1156,10 +1129,6 @@
   </si>
   <si>
     <t>Describes an expected sequence of events for one of the participants of a study.  E.g. Exposure to drug A, wash-out, exposure to drug B, wash-out, follow-up.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
   </si>
   <si>
     <t>Arm</t>
@@ -1589,7 +1558,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO53"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1636,8 +1605,8 @@
     <col min="37" max="37" width="177.51953125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="39.109375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="83.85546875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="155.9140625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="155.9140625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1876,7 +1845,7 @@
         <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>20</v>
@@ -1884,10 +1853,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1898,28 +1867,28 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1969,13 +1938,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -2001,10 +1970,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2015,25 +1984,25 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2084,19 +2053,19 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -2116,10 +2085,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2130,28 +2099,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2201,19 +2170,19 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -2233,10 +2202,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2247,7 +2216,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -2259,16 +2228,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2294,43 +2263,43 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>118</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
@@ -2350,21 +2319,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -2376,16 +2345,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2435,28 +2404,28 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>20</v>
@@ -2467,14 +2436,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2493,16 +2462,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2552,7 +2521,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2564,7 +2533,7 @@
         <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>20</v>
@@ -2573,7 +2542,7 @@
         <v>20</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>20</v>
@@ -2584,10 +2553,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2610,13 +2579,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2655,17 +2624,17 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2677,7 +2646,7 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
@@ -2697,13 +2666,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>20</v>
@@ -2725,13 +2694,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2782,7 +2751,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2791,10 +2760,10 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
@@ -2814,13 +2783,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>20</v>
@@ -2842,13 +2811,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2899,7 +2868,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2908,10 +2877,10 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>20</v>
@@ -2931,13 +2900,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>20</v>
@@ -2959,13 +2928,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3016,7 +2985,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3025,10 +2994,10 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>20</v>
@@ -3048,16 +3017,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3070,22 +3037,26 @@
         <v>20</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>20</v>
       </c>
@@ -3133,7 +3104,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3142,10 +3113,10 @@
         <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>20</v>
@@ -3154,7 +3125,7 @@
         <v>20</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>20</v>
@@ -3165,18 +3136,18 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>80</v>
@@ -3185,25 +3156,23 @@
         <v>20</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -3252,7 +3221,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3264,30 +3233,30 @@
         <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>20</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3295,33 +3264,31 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>177</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>20</v>
       </c>
@@ -3369,19 +3336,19 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>178</v>
@@ -3390,21 +3357,21 @@
         <v>20</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AN15" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="AO15" t="s" s="2">
-        <v>181</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3415,25 +3382,25 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3484,46 +3451,46 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AL16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AO16" t="s" s="2">
-        <v>187</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3539,7 +3506,7 @@
         <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>189</v>
@@ -3551,7 +3518,9 @@
         <v>191</v>
       </c>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
       </c>
@@ -3599,7 +3568,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3611,22 +3580,22 @@
         <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>194</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -3638,37 +3607,35 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>199</v>
-      </c>
       <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>200</v>
-      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>20</v>
       </c>
@@ -3692,13 +3659,13 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -3719,16 +3686,16 @@
         <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>201</v>
@@ -3743,15 +3710,15 @@
         <v>20</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>20</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3759,28 +3726,28 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3807,13 +3774,13 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -3831,31 +3798,31 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>20</v>
@@ -3877,25 +3844,25 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3922,13 +3889,13 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -3952,25 +3919,25 @@
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>20</v>
@@ -3992,25 +3959,25 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4037,13 +4004,13 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
@@ -4067,16 +4034,16 @@
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>20</v>
@@ -4085,18 +4052,18 @@
         <v>20</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>20</v>
+        <v>224</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>227</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4107,7 +4074,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -4116,16 +4083,16 @@
         <v>20</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4152,10 +4119,10 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>20</v>
@@ -4182,47 +4149,47 @@
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>20</v>
+        <v>229</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>232</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -4234,15 +4201,17 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4279,31 +4248,31 @@
         <v>20</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>20</v>
@@ -4312,7 +4281,7 @@
         <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>20</v>
@@ -4323,14 +4292,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4346,21 +4315,23 @@
         <v>20</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>137</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>20</v>
       </c>
@@ -4369,7 +4340,7 @@
         <v>20</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>20</v>
+        <v>241</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>20</v>
@@ -4396,16 +4367,16 @@
         <v>20</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>241</v>
+        <v>20</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>242</v>
@@ -4420,16 +4391,16 @@
         <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>20</v>
@@ -4440,10 +4411,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4454,7 +4425,7 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
@@ -4463,22 +4434,22 @@
         <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4488,7 +4459,7 @@
         <v>20</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>249</v>
+        <v>20</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>20</v>
@@ -4533,13 +4504,13 @@
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>20</v>
@@ -4573,19 +4544,19 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K26" t="s" s="2">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>254</v>
@@ -4596,9 +4567,7 @@
       <c r="N26" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="O26" t="s" s="2">
-        <v>257</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>20</v>
       </c>
@@ -4622,10 +4591,10 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>20</v>
@@ -4646,34 +4615,34 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AL26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -4701,10 +4670,10 @@
         <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>262</v>
@@ -4739,13 +4708,13 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Y27" t="s" s="2">
         <v>265</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -4775,10 +4744,10 @@
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
@@ -4787,10 +4756,10 @@
         <v>20</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28">
@@ -4818,20 +4787,18 @@
         <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N28" t="s" s="2">
         <v>272</v>
       </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -4856,13 +4823,13 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>273</v>
+        <v>20</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>274</v>
+        <v>20</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -4892,10 +4859,10 @@
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>20</v>
@@ -4904,18 +4871,18 @@
         <v>20</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>276</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4935,16 +4902,16 @@
         <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4995,7 +4962,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5007,10 +4974,10 @@
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>20</v>
@@ -5019,18 +4986,18 @@
         <v>20</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>282</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5050,16 +5017,16 @@
         <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>284</v>
+        <v>205</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5086,10 +5053,10 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>20</v>
+        <v>284</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>20</v>
@@ -5110,7 +5077,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5122,10 +5089,10 @@
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>20</v>
@@ -5134,18 +5101,18 @@
         <v>20</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>20</v>
+        <v>286</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>288</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5165,16 +5132,16 @@
         <v>20</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5201,13 +5168,13 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>20</v>
+        <v>291</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
@@ -5225,7 +5192,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5237,10 +5204,10 @@
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>20</v>
@@ -5252,15 +5219,15 @@
         <v>20</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>294</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5271,7 +5238,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
@@ -5280,16 +5247,16 @@
         <v>20</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>213</v>
+        <v>294</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5316,55 +5283,55 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
@@ -5372,41 +5339,43 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="K33" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5455,19 +5424,19 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>305</v>
@@ -5476,32 +5445,32 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>20</v>
+        <v>306</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -5510,20 +5479,18 @@
         <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5572,62 +5539,62 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>318</v>
+        <v>20</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>319</v>
@@ -5687,19 +5654,19 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>322</v>
@@ -5733,16 +5700,16 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>327</v>
@@ -5808,13 +5775,13 @@
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>330</v>
@@ -5823,21 +5790,21 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AN36" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="AO36" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5848,25 +5815,25 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5917,42 +5884,42 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AO37" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>339</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5963,7 +5930,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -5972,16 +5939,16 @@
         <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6008,13 +5975,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>20</v>
+        <v>342</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>20</v>
+        <v>343</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -6032,19 +5999,19 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>344</v>
@@ -6078,7 +6045,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>20</v>
@@ -6087,16 +6054,16 @@
         <v>20</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>213</v>
+        <v>348</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6123,13 +6090,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>351</v>
+        <v>20</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6153,36 +6120,36 @@
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AL39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AN39" t="s" s="2">
-        <v>353</v>
+        <v>20</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>354</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6205,13 +6172,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6262,7 +6229,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6274,19 +6241,19 @@
         <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>20</v>
+        <v>358</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6294,10 +6261,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6308,7 +6275,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -6320,13 +6287,13 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>362</v>
+        <v>175</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>363</v>
+        <v>226</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>364</v>
+        <v>227</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6377,53 +6344,53 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>361</v>
+        <v>228</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>365</v>
+        <v>20</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>366</v>
+        <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>20</v>
+        <v>229</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>367</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -6435,15 +6402,17 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6492,19 +6461,19 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
@@ -6513,7 +6482,7 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>20</v>
@@ -6524,14 +6493,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>167</v>
+        <v>362</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6544,24 +6513,26 @@
         <v>20</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>240</v>
+        <v>364</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
       </c>
@@ -6609,7 +6580,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>242</v>
+        <v>365</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6621,7 +6592,7 @@
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
@@ -6630,7 +6601,7 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>237</v>
+        <v>133</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>20</v>
@@ -6641,46 +6612,42 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>371</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
       </c>
@@ -6728,31 +6695,31 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>20</v>
+        <v>370</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -6760,10 +6727,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6771,10 +6738,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
@@ -6786,13 +6753,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6843,42 +6810,42 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AO45" t="s" s="2">
-        <v>379</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6889,7 +6856,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -6901,13 +6868,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6958,42 +6925,42 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AO46" t="s" s="2">
-        <v>384</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7004,7 +6971,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -7016,13 +6983,13 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>183</v>
+        <v>354</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7073,22 +7040,22 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>20</v>
@@ -7100,15 +7067,15 @@
         <v>20</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>389</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7119,7 +7086,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -7131,13 +7098,13 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>362</v>
+        <v>175</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>391</v>
+        <v>226</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>392</v>
+        <v>227</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7188,28 +7155,28 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>390</v>
+        <v>228</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>365</v>
+        <v>20</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>393</v>
+        <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>20</v>
+        <v>229</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>20</v>
@@ -7220,21 +7187,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -7246,15 +7213,17 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7303,19 +7272,19 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>20</v>
@@ -7324,7 +7293,7 @@
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>20</v>
@@ -7335,14 +7304,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>167</v>
+        <v>362</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7355,24 +7324,26 @@
         <v>20</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>240</v>
+        <v>364</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
       </c>
@@ -7420,7 +7391,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>242</v>
+        <v>365</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7432,7 +7403,7 @@
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
@@ -7441,7 +7412,7 @@
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>237</v>
+        <v>133</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>20</v>
@@ -7452,46 +7423,42 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>371</v>
+        <v>20</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>20</v>
       </c>
@@ -7539,28 +7506,28 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>20</v>
+        <v>391</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>20</v>
@@ -7571,10 +7538,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7585,7 +7552,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -7597,13 +7564,13 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7630,13 +7597,13 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>20</v>
+        <v>395</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>20</v>
+        <v>396</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -7654,23 +7621,23 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>400</v>
-      </c>
       <c r="AL52" t="s" s="2">
         <v>20</v>
       </c>
@@ -7681,121 +7648,6 @@
         <v>20</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO53" t="s" s="2">
         <v>20</v>
       </c>
     </row>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:06:27+00:00</t>
+    <t>2025-07-22T19:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:44:39+00:00</t>
+    <t>2025-08-11T13:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:46:00+00:00</t>
+    <t>2025-08-11T15:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T15:03:48+00:00</t>
+    <t>2025-08-12T16:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T17:45:57+00:00</t>
+    <t>2025-08-12T18:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-study.xlsx
+++ b/StructureDefinition-ncpi-research-study.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T18:02:45+00:00</t>
+    <t>2025-08-26T23:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
